--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Деталь</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Подлокотник верх. Право</t>
   </si>
   <si>
-    <t>есть</t>
-  </si>
-  <si>
     <t>Подлокотник верх. Лево</t>
   </si>
   <si>
@@ -69,6 +66,21 @@
   </si>
   <si>
     <t>около 3 часов</t>
+  </si>
+  <si>
+    <t>Подлокотник низ. Право</t>
+  </si>
+  <si>
+    <t>Подлокотник низ. Лево</t>
+  </si>
+  <si>
+    <t>нет\не сделано</t>
+  </si>
+  <si>
+    <t>частично сделано</t>
+  </si>
+  <si>
+    <t>есть\сделано</t>
   </si>
 </sst>
 </file>
@@ -85,15 +97,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -102,6 +144,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -112,6 +163,49 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -122,101 +216,109 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
@@ -514,222 +616,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="17">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Деталь</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>есть\сделано</t>
+  </si>
+  <si>
+    <t>Царга Передняя</t>
+  </si>
+  <si>
+    <t>489x92x62</t>
+  </si>
+  <si>
+    <t>Царга Задняя</t>
+  </si>
+  <si>
+    <t>около 2 часов</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -306,6 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -602,7 +615,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,13 +672,13 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -676,13 +689,15 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -693,9 +708,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -710,10 +727,12 @@
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="F6" s="15">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
@@ -727,27 +746,45 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10"/>
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -756,7 +793,9 @@
       <c r="C10" s="14"/>
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -765,7 +804,9 @@
       <c r="C11" s="14"/>
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -774,7 +815,9 @@
       <c r="C12" s="14"/>
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -783,7 +826,9 @@
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -792,37 +837,42 @@
       <c r="C14" s="14"/>
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
       <c r="G15" s="13"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Деталь</t>
   </si>
@@ -89,10 +89,22 @@
     <t>489x92x62</t>
   </si>
   <si>
-    <t>Царга Задняя</t>
-  </si>
-  <si>
     <t>около 2 часов</t>
+  </si>
+  <si>
+    <t>Царга Задняя Нижняя</t>
+  </si>
+  <si>
+    <t>Царга бок. Право</t>
+  </si>
+  <si>
+    <t>Царка бок. Лево</t>
+  </si>
+  <si>
+    <t>Царга бок. Право Изм</t>
+  </si>
+  <si>
+    <t>Царка бок. Лево Изм</t>
   </si>
 </sst>
 </file>
@@ -302,35 +314,83 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +675,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,245 +689,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="21">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="21">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16">
+      <c r="C10" s="10"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16">
+      <c r="C11" s="10"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="C12" s="22"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16">
+      <c r="C13" s="22"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Деталь</t>
   </si>
@@ -105,13 +105,16 @@
   </si>
   <si>
     <t>Царка бок. Лево Изм</t>
+  </si>
+  <si>
+    <t>Корона</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,19 +123,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -312,84 +316,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,7 +702,7 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -707,243 +714,245 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13">
-        <v>4</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17">
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17">
+      <c r="B5" s="19">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16">
         <v>0</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18" t="s">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="21">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="20">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="18" t="s">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="21">
-        <v>4</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="20">
+        <v>4</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="18" t="s">
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="21">
-        <v>4</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="20">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21">
-        <v>4</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="B9" s="19">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="20">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17">
+      <c r="C10" s="9"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17">
+      <c r="C11" s="9"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17">
+      <c r="C12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17">
+      <c r="C13" s="21"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17">
+      <c r="A14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16">
         <v>0</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="17">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="16">
         <v>0</v>
       </c>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Деталь</t>
   </si>
@@ -108,6 +108,45 @@
   </si>
   <si>
     <t>Корона</t>
+  </si>
+  <si>
+    <t>Царга Задняя Верхняя</t>
+  </si>
+  <si>
+    <t>Ножка Перед Право</t>
+  </si>
+  <si>
+    <t>Ножка Перед Лево</t>
+  </si>
+  <si>
+    <t>Ножка Зад Право</t>
+  </si>
+  <si>
+    <t>Ножка Зад Лево</t>
+  </si>
+  <si>
+    <t>до 2 часов</t>
+  </si>
+  <si>
+    <t>398х88х96</t>
+  </si>
+  <si>
+    <t>398х88х97</t>
+  </si>
+  <si>
+    <t>398х88х98</t>
+  </si>
+  <si>
+    <t>398х88х99</t>
+  </si>
+  <si>
+    <t>484х89х62</t>
+  </si>
+  <si>
+    <t>363х67х84</t>
+  </si>
+  <si>
+    <t>464х60х51</t>
   </si>
 </sst>
 </file>
@@ -316,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -393,10 +432,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +727,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,9 +735,10 @@
     <col min="1" max="1" width="27.90625" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="4" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -702,17 +748,17 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>12</v>
@@ -727,10 +773,10 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
@@ -744,10 +790,10 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13">
+      <c r="E3" s="13">
         <v>2</v>
       </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
@@ -761,10 +807,10 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -776,10 +822,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -791,11 +837,11 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="20">
-        <v>4</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -810,11 +856,11 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="20">
-        <v>4</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -829,11 +875,11 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="20">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="20">
-        <v>4</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>21</v>
@@ -848,11 +894,13 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20">
-        <v>4</v>
-      </c>
-      <c r="G9" s="17"/>
+      <c r="E9" s="20">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
@@ -863,11 +911,15 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17"/>
+      <c r="E10" s="20">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
@@ -878,11 +930,15 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
@@ -893,11 +949,13 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
@@ -908,49 +966,129 @@
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="30"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16">
+      <c r="E14" s="16">
         <v>0</v>
       </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="23">
+        <v>4</v>
+      </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="16">
+      <c r="D15" s="31"/>
+      <c r="E15" s="20">
+        <v>4</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="23">
+        <v>4</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="16">
         <v>0</v>
       </c>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="23">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="23">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
         <v>18</v>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -411,9 +411,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +724,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,7 +745,7 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -803,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="15"/>
@@ -818,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="15"/>
@@ -947,8 +944,8 @@
       <c r="B12" s="19">
         <v>2</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="16">
         <v>0</v>
       </c>
@@ -964,8 +961,8 @@
       <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="16">
         <v>0</v>
       </c>
@@ -981,7 +978,7 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16">
         <v>0</v>
@@ -990,91 +987,91 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="23">
-        <v>4</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="22">
+        <v>4</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="20">
         <v>4</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="23">
-        <v>4</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="28">
+      <c r="B16" s="22">
+        <v>4</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20">
+        <v>4</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="22">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="27">
         <v>1</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="23">
-        <v>4</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="23">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="22">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="23">
-        <v>4</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="22">
+        <v>4</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -724,7 +724,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,8 +946,8 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="16">
-        <v>0</v>
+      <c r="E12" s="20">
+        <v>2</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Деталь</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>464х60х51</t>
+  </si>
+  <si>
+    <t>около 1.5 часа</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -391,9 +394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,7 +724,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +745,7 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -803,275 +803,279 @@
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="D4" s="13"/>
+      <c r="E4" s="19">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="21">
+        <v>4</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="21">
+        <v>4</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26">
+        <v>2</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="21">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15">
         <v>0</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="F18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="19">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="19">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
-        <v>4</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
-        <v>4</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="19">
-        <v>4</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="22">
-        <v>4</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="20">
-        <v>4</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="22">
-        <v>4</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="20">
-        <v>4</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="22">
-        <v>4</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="22">
-        <v>4</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="22">
-        <v>4</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
